--- a/output.xlsx
+++ b/output.xlsx
@@ -439,12 +439,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.apollo.io › people › Matthew › Buchanan › 5e5fc784b17b8b0001d0012e</t>
+          <t>https://www.zoominfo.com › p › Matthew-Buchanan › 5998075532</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Matthew Buchanan - Software Engineer - Black Knight | Business Profile ...</t>
+          <t>Matthew Buchanan - Software Engin.. - Black Knight | ZoomInfo.com</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,12 +439,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.zoominfo.com › p › Matthew-Buchanan › 5998075532</t>
+          <t>https://www.linkedin.com › in › matthew-buchanan-8a1899b1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Matthew Buchanan - Software Engin.. - Black Knight | ZoomInfo.com</t>
+          <t>Matthew Buchanan - Software Engineer - Black Knight | LinkedIn</t>
         </is>
       </c>
     </row>
@@ -483,12 +483,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.zoominfo.com › p › Luke-Schwan › 7657009527</t>
+          <t>https://www.datanyze.com › companies › stouse › 36782264</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Luke Schwan - Director, Business Transforma.. - Stouse | ZoomInfo</t>
+          <t>Stouse Company Profile | Management and Employees List - Datanyze</t>
         </is>
       </c>
     </row>
